--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>87.07447926650843</v>
+        <v>0.03911365294222222</v>
       </c>
       <c r="R2">
-        <v>783.6703133985758</v>
+        <v>0.35202287648</v>
       </c>
       <c r="S2">
-        <v>0.3564435580899257</v>
+        <v>0.001172523758381379</v>
       </c>
       <c r="T2">
-        <v>0.3564435580899258</v>
+        <v>0.001172523758381379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H3">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I3">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J3">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>85.82209371461509</v>
+        <v>0.9583804651911111</v>
       </c>
       <c r="R3">
-        <v>772.3988434315359</v>
+        <v>8.62542418672</v>
       </c>
       <c r="S3">
-        <v>0.351316857752724</v>
+        <v>0.02872970895009768</v>
       </c>
       <c r="T3">
-        <v>0.351316857752724</v>
+        <v>0.02872970895009768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H4">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I4">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J4">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>12.80987079938355</v>
+        <v>0.1430485951155556</v>
       </c>
       <c r="R4">
-        <v>115.288837194452</v>
+        <v>1.28743735604</v>
       </c>
       <c r="S4">
-        <v>0.05243782064351362</v>
+        <v>0.004288218147863386</v>
       </c>
       <c r="T4">
-        <v>0.05243782064351363</v>
+        <v>0.004288218147863385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>9.437990133658666</v>
+        <v>0.3796454187413333</v>
       </c>
       <c r="R5">
-        <v>84.941911202928</v>
+        <v>3.416808768672</v>
       </c>
       <c r="S5">
-        <v>0.03863486537958374</v>
+        <v>0.01138076450932405</v>
       </c>
       <c r="T5">
-        <v>0.03863486537958374</v>
+        <v>0.01138076450932404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>9.302244245978667</v>
@@ -818,10 +818,10 @@
         <v>83.720198213808</v>
       </c>
       <c r="S6">
-        <v>0.03807918307624616</v>
+        <v>0.2788566539869898</v>
       </c>
       <c r="T6">
-        <v>0.03807918307624616</v>
+        <v>0.2788566539869897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
         <v>1.388460031417333</v>
@@ -880,10 +880,10 @@
         <v>12.496140282756</v>
       </c>
       <c r="S7">
-        <v>0.005683727747016241</v>
+        <v>0.04162235567219015</v>
       </c>
       <c r="T7">
-        <v>0.005683727747016241</v>
+        <v>0.04162235567219013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J8">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>18.02933704888444</v>
+        <v>0.7252344107822223</v>
       </c>
       <c r="R8">
-        <v>162.26403343996</v>
+        <v>6.52710969704</v>
       </c>
       <c r="S8">
-        <v>0.07380395612860935</v>
+        <v>0.02174060751354522</v>
       </c>
       <c r="T8">
-        <v>0.07380395612860936</v>
+        <v>0.02174060751354522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J9">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>17.77002247795111</v>
@@ -1004,10 +1004,10 @@
         <v>159.93020230156</v>
       </c>
       <c r="S9">
-        <v>0.07274243949243014</v>
+        <v>0.5326982261960279</v>
       </c>
       <c r="T9">
-        <v>0.07274243949243016</v>
+        <v>0.5326982261960279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J10">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>2.652367032685555</v>
+        <v>2.652367032685556</v>
       </c>
       <c r="R10">
         <v>23.87130329417</v>
       </c>
       <c r="S10">
-        <v>0.01085759168995106</v>
+        <v>0.0795109412655806</v>
       </c>
       <c r="T10">
-        <v>0.01085759168995106</v>
+        <v>0.07951094126558057</v>
       </c>
     </row>
   </sheetData>
